--- a/list/sukamantri/mekarwangi/list_mekarwangi_1.xlsx
+++ b/list/sukamantri/mekarwangi/list_mekarwangi_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\dds req\list\sukamantri\mekarwangi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F99E795-FB9E-4526-83A7-0F30A7528155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C755D9FD-7B72-4588-A608-98F44E7F6A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A4170CD-5F29-480B-944E-1B0FEA867C5C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="159">
   <si>
     <t>nama</t>
   </si>
@@ -181,60 +181,12 @@
     <t>014</t>
   </si>
   <si>
-    <t>Upah minimum rendah, sulit untuk hidup layak bagi masyarakat.</t>
-  </si>
-  <si>
     <t>Pekerjaan sulit dicari, pengangguran meningkat di wilayah ini.</t>
   </si>
   <si>
-    <t>ANISYA HARISTYA RAMADHANI</t>
-  </si>
-  <si>
-    <t>SUSI TRIANA</t>
-  </si>
-  <si>
-    <t>HARIS</t>
-  </si>
-  <si>
-    <t>DAYAT HIDAYATULOH</t>
-  </si>
-  <si>
-    <t>JEJE JAELANI</t>
-  </si>
-  <si>
     <t>ANISA</t>
   </si>
   <si>
-    <t>AMINAH</t>
-  </si>
-  <si>
-    <t>UFI SITI MUFIDAH</t>
-  </si>
-  <si>
-    <t>PIKRI MUBAROK</t>
-  </si>
-  <si>
-    <t>SITI ROHMAH</t>
-  </si>
-  <si>
-    <t>JAMIAN</t>
-  </si>
-  <si>
-    <t>SYLLA ARSYLA</t>
-  </si>
-  <si>
-    <t>RIA PURNAMASARI</t>
-  </si>
-  <si>
-    <t>UUN UNAENI</t>
-  </si>
-  <si>
-    <t>ALIMUDIN</t>
-  </si>
-  <si>
-    <t>ARKHA SAPUTRA</t>
-  </si>
-  <si>
     <t>Rinduwangi</t>
   </si>
   <si>
@@ -250,76 +202,307 @@
     <t xml:space="preserve">Mekarwangi  </t>
   </si>
   <si>
-    <t>MUHAMAD ALFAN</t>
-  </si>
-  <si>
-    <t>DIAN</t>
-  </si>
-  <si>
-    <t>NENI NURAENI</t>
-  </si>
-  <si>
-    <t>ALISKA SABILA</t>
-  </si>
-  <si>
-    <t>TJAWI</t>
-  </si>
-  <si>
-    <t>HAFID</t>
-  </si>
-  <si>
     <t>SARTIM</t>
   </si>
   <si>
-    <t>M.ADAM SUTRISNA</t>
-  </si>
-  <si>
-    <t>ASIKIN</t>
-  </si>
-  <si>
-    <t>IYUS SITI SOLIHAT</t>
-  </si>
-  <si>
-    <t>ZIDNI IBNU AQIL</t>
-  </si>
-  <si>
-    <t>HABUDIN</t>
-  </si>
-  <si>
-    <t>ATIKAH</t>
-  </si>
-  <si>
-    <t>DILA ANTIKA</t>
-  </si>
-  <si>
-    <t>2023-07-01</t>
-  </si>
-  <si>
-    <t>2023-07-02</t>
-  </si>
-  <si>
-    <t>2023-07-03</t>
-  </si>
-  <si>
-    <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>2023-07-05</t>
-  </si>
-  <si>
-    <t>2023-07-06</t>
-  </si>
-  <si>
-    <t>2023-07-07</t>
-  </si>
-  <si>
-    <t>2023-07-08</t>
-  </si>
-  <si>
-    <t>2023-07-09</t>
-  </si>
-  <si>
-    <t>2023-07-10</t>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>2023-08-02</t>
+  </si>
+  <si>
+    <t>2023-08-03</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>2023-08-05</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
+    <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>2023-08-12</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>Upah minimum rendah, sulit untuk hidup layak bagi warga.</t>
+  </si>
+  <si>
+    <t>Lampu jalan di depan rumah saya tidak menyala ketika malam.</t>
+  </si>
+  <si>
+    <t>Jalan di sekitar lingkungan kami berlubang dan perlu diperbaiki.</t>
+  </si>
+  <si>
+    <t>Sampah di taman umum tidak dibersihkan secara teratur.</t>
+  </si>
+  <si>
+    <t>Sistem drainase di daerah kami tidak berfungsi dengan baik saat hujan.</t>
+  </si>
+  <si>
+    <t>Ada kebisingan berlebihan dari pabrik yang mengganggu kenyamanan tinggal kami.</t>
+  </si>
+  <si>
+    <t>Fasilitas olahraga seperti lapangan sepak bola dan lapangan basket rusak dan tidak diperbaiki.</t>
+  </si>
+  <si>
+    <t>Tidak ada tempat penampungan sampah yang cukup di sekitar kami.</t>
+  </si>
+  <si>
+    <t>Air minum dari kran di rumah kami terasa kotor dan berbau.</t>
+  </si>
+  <si>
+    <t>Sekolah setempat kurang memadai dalam menyediakan fasilitas pendidikan yang memadai.</t>
+  </si>
+  <si>
+    <t>Gang-gang di lingkungan kami tidak terawat dan menjadi sarang nyamuk.</t>
+  </si>
+  <si>
+    <t>Perluasan jalan di sekitar kami menyebabkan kemacetan lalu lintas yang parah.</t>
+  </si>
+  <si>
+    <t>Kualitas udara di lingkungan kami buruk karena polusi kendaraan.</t>
+  </si>
+  <si>
+    <t>Rute angkutan umum ke daerah kami tidak memadai untuk masyarakat.</t>
+  </si>
+  <si>
+    <t>Listrik sering mati dan pemadaman berlangsung lama di lingkungan kami.</t>
+  </si>
+  <si>
+    <t>Tidak ada fasilitas kesehatan yang memadai di dekat tempat tinggal kami.</t>
+  </si>
+  <si>
+    <t>Tingkat kejahatan di lingkungan kami meningkat dan perlu keamanan yang lebih baik.</t>
+  </si>
+  <si>
+    <t>Tidak ada tempat bermain untuk anak-anak di sekitar kami.</t>
+  </si>
+  <si>
+    <t>Kualitas air di sungai atau danau terdekat tercemar dan perlu diperbaiki.</t>
+  </si>
+  <si>
+    <t>Ruang publik seperti taman dan area hijau tidak dirawat dengan baik.</t>
+  </si>
+  <si>
+    <t>Kualitas penerangan di jalan-jalan kami buruk dan perlu ditingkatkan.</t>
+  </si>
+  <si>
+    <t>Kurangnya tempat parkir yang memadai di sekitar toko dan pusat perbelanjaan.</t>
+  </si>
+  <si>
+    <t>Kurangnya lapangan kerja di lingkungan kami membuat ekonomi warga sulit.</t>
+  </si>
+  <si>
+    <t>Internet di daerah kami tidak stabil dan sering putus.</t>
+  </si>
+  <si>
+    <t>Tidak adanya aksesibilitas bagi orang dengan kebutuhan khusus di tempat umum.</t>
+  </si>
+  <si>
+    <t>Binatang liar seperti anjing liar menjadi masalah di lingkungan kami.</t>
+  </si>
+  <si>
+    <t>Tidak ada jalur pejalan kaki yang aman di sekitar jalan-jalan utama.</t>
+  </si>
+  <si>
+    <t>Tidak adanya ruang terbuka hijau yang cukup di dekat tempat tinggal kami.</t>
+  </si>
+  <si>
+    <t>Tidak ada layanan angkutan umum pada larut malam di wilayah kami.</t>
+  </si>
+  <si>
+    <t>Bangunan yang ditinggalkan dan tidak terawat di sekitar kami menjadi tempat tinggal bagi tikus dan serangga.</t>
+  </si>
+  <si>
+    <t>Kurangnya tempat ibadah yang memadai di daerah kami.</t>
+  </si>
+  <si>
+    <t>YULIAWATI</t>
+  </si>
+  <si>
+    <t>RAHMAN</t>
+  </si>
+  <si>
+    <t>UJU JUARSIH</t>
+  </si>
+  <si>
+    <t>DENI NURFADILAH</t>
+  </si>
+  <si>
+    <t>NITA</t>
+  </si>
+  <si>
+    <t>MEILANI RAHMANIA</t>
+  </si>
+  <si>
+    <t>ROHIDIN</t>
+  </si>
+  <si>
+    <t>OOH</t>
+  </si>
+  <si>
+    <t>AURA</t>
+  </si>
+  <si>
+    <t>ADRIAN SAPUTRA</t>
+  </si>
+  <si>
+    <t>MAYA AMALIA</t>
+  </si>
+  <si>
+    <t>EDI SUPRIADI</t>
+  </si>
+  <si>
+    <t>NUNUNG NURJANAH</t>
+  </si>
+  <si>
+    <t>MAMAT</t>
+  </si>
+  <si>
+    <t>HOLISOH</t>
+  </si>
+  <si>
+    <t>RINI ANGGRAENI</t>
+  </si>
+  <si>
+    <t>AJI FIRLIANSYAH</t>
+  </si>
+  <si>
+    <t>SANEN</t>
+  </si>
+  <si>
+    <t>CARTI</t>
+  </si>
+  <si>
+    <t>HAMDULI</t>
+  </si>
+  <si>
+    <t>SITI MASITOH</t>
+  </si>
+  <si>
+    <t>FIKRI ABDULLOH</t>
+  </si>
+  <si>
+    <t>MUHAMAD ABI RAHAYU</t>
+  </si>
+  <si>
+    <t>ARYA ALIP NURHIDAYAT</t>
+  </si>
+  <si>
+    <t>AMIR</t>
+  </si>
+  <si>
+    <t>ETI RUHAETI</t>
+  </si>
+  <si>
+    <t>RIZAL MUSTOPA</t>
+  </si>
+  <si>
+    <t>AGUNG GUMELAR</t>
+  </si>
+  <si>
+    <t>IMI</t>
+  </si>
+  <si>
+    <t>ABDUL ROHIM</t>
+  </si>
+  <si>
+    <t>TOTO</t>
+  </si>
+  <si>
+    <t>PINA RAHMATUL UMAH</t>
+  </si>
+  <si>
+    <t>AIM TRI RAMDANI</t>
+  </si>
+  <si>
+    <t>AFIFAH HUMAIRA</t>
+  </si>
+  <si>
+    <t>PRIYATNA</t>
+  </si>
+  <si>
+    <t>MAHMUD</t>
+  </si>
+  <si>
+    <t>KUSYATI</t>
+  </si>
+  <si>
+    <t>ANWAR</t>
+  </si>
+  <si>
+    <t>DIMAS SAKTI SAPUTRA</t>
+  </si>
+  <si>
+    <t>MURNI</t>
+  </si>
+  <si>
+    <t>SITI MILANI</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>AHMAD ROJUDIN</t>
+  </si>
+  <si>
+    <t>HOLIKIN</t>
+  </si>
+  <si>
+    <t>NIA KURNIASIH</t>
+  </si>
+  <si>
+    <t>RIRI FAZRI RAMDANI</t>
+  </si>
+  <si>
+    <t>GINA ASRI SEPTIANI</t>
+  </si>
+  <si>
+    <t>KOMAR TAQWA</t>
+  </si>
+  <si>
+    <t>ANAH</t>
+  </si>
+  <si>
+    <t>ENGKOS KOSASIH</t>
+  </si>
+  <si>
+    <t>ICIH SUGIARSIH</t>
+  </si>
+  <si>
+    <t>NADIP ZIAN RAMADHAN</t>
+  </si>
+  <si>
+    <t>NAILA RAMADANI</t>
+  </si>
+  <si>
+    <t>JAEMAH</t>
+  </si>
+  <si>
+    <t>ESON</t>
+  </si>
+  <si>
+    <t>WARTINI</t>
+  </si>
+  <si>
+    <t>ANITA RAHMAWATI</t>
   </si>
 </sst>
 </file>
@@ -712,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330EDF8F-AF7E-4CFD-AD2A-76F45302569C}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,22 +939,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Pajagan</v>
+        <v>Rinduwangi</v>
       </c>
       <c r="E2" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>001</v>
+        <v>009</v>
       </c>
       <c r="F2" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>008</v>
+        <v>014</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>conf!$A$2</f>
@@ -786,10 +969,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
@@ -797,11 +980,11 @@
       </c>
       <c r="E3" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>008</v>
+        <v>013</v>
       </c>
       <c r="F3" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>010</v>
+        <v>004</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>conf!$A$2</f>
@@ -816,18 +999,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Pajagan</v>
+        <v>Cikerenceng</v>
       </c>
       <c r="E4" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>005</v>
+        <v>009</v>
       </c>
       <c r="F4" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
@@ -846,29 +1029,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Lebakwangi</v>
+        <v>Pajagan</v>
       </c>
       <c r="E5" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>004</v>
+        <v>011</v>
       </c>
       <c r="F5" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>015</v>
+        <v>003</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>conf!$A$2</f>
         <v xml:space="preserve">Mekarwangi  </v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -876,22 +1059,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Cikerenceng</v>
+        <v>Rinduwangi</v>
       </c>
       <c r="E6" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>004</v>
+        <v>001</v>
       </c>
       <c r="F6" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>010</v>
+        <v>009</v>
       </c>
       <c r="G6" s="4" t="str">
         <f>conf!$A$2</f>
@@ -906,10 +1089,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
@@ -917,11 +1100,11 @@
       </c>
       <c r="E7" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>011</v>
+        <v>009</v>
       </c>
       <c r="F7" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>007</v>
+        <v>002</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>conf!$A$2</f>
@@ -936,10 +1119,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
@@ -947,11 +1130,11 @@
       </c>
       <c r="E8" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>005</v>
+        <v>014</v>
       </c>
       <c r="F8" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>014</v>
+        <v>003</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>conf!$A$2</f>
@@ -966,29 +1149,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D9" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Lebakwangi</v>
+        <v>Pajagan</v>
       </c>
       <c r="E9" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>002</v>
+        <v>009</v>
       </c>
       <c r="F9" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>012</v>
+        <v>005</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>conf!$A$2</f>
         <v xml:space="preserve">Mekarwangi  </v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -996,22 +1179,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Lebakwangi</v>
+        <v>Rinduwangi</v>
       </c>
       <c r="E10" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>012</v>
+        <v>005</v>
       </c>
       <c r="F10" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>013</v>
+        <v>004</v>
       </c>
       <c r="G10" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1026,22 +1209,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Lebakwangi</v>
+        <v>Rinduwangi</v>
       </c>
       <c r="E11" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>012</v>
+        <v>001</v>
       </c>
       <c r="F11" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>001</v>
+        <v>007</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1056,22 +1239,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Lebakwangi</v>
+        <v>Rinduwangi</v>
       </c>
       <c r="E12" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>003</v>
+        <v>005</v>
       </c>
       <c r="F12" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>005</v>
+        <v>008</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1086,10 +1269,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
@@ -1097,11 +1280,11 @@
       </c>
       <c r="E13" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>007</v>
+        <v>015</v>
       </c>
       <c r="F13" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>011</v>
+        <v>005</v>
       </c>
       <c r="G13" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1116,22 +1299,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D14" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Lebakwangi</v>
+        <v>Rinduwangi</v>
       </c>
       <c r="E14" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>011</v>
+        <v>002</v>
       </c>
       <c r="F14" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>008</v>
+        <v>010</v>
       </c>
       <c r="G14" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1146,22 +1329,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Pajagan</v>
+        <v>Cikerenceng</v>
       </c>
       <c r="E15" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>006</v>
+        <v>013</v>
       </c>
       <c r="F15" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>002</v>
+        <v>008</v>
       </c>
       <c r="G15" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1176,18 +1359,18 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Lebakwangi</v>
+        <v>Cikerenceng</v>
       </c>
       <c r="E16" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>002</v>
+        <v>013</v>
       </c>
       <c r="F16" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
@@ -1206,22 +1389,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Lebakwangi</v>
+        <v>Pajagan</v>
       </c>
       <c r="E17" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>009</v>
+        <v>005</v>
       </c>
       <c r="F17" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>011</v>
+        <v>004</v>
       </c>
       <c r="G17" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1236,22 +1419,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="D18" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Rinduwangi</v>
+        <v>Pajagan</v>
       </c>
       <c r="E18" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>012</v>
+        <v>003</v>
       </c>
       <c r="F18" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>013</v>
+        <v>001</v>
       </c>
       <c r="G18" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1266,22 +1449,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Pajagan</v>
+        <v>Lebakwangi</v>
       </c>
       <c r="E19" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>007</v>
+        <v>006</v>
       </c>
       <c r="F19" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>014</v>
+        <v>011</v>
       </c>
       <c r="G19" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1296,10 +1479,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="D20" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
@@ -1307,11 +1490,11 @@
       </c>
       <c r="E20" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>005</v>
+        <v>004</v>
       </c>
       <c r="F20" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>015</v>
+        <v>011</v>
       </c>
       <c r="G20" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1326,22 +1509,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="D21" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Rinduwangi</v>
+        <v>Lebakwangi</v>
       </c>
       <c r="E21" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>006</v>
+        <v>009</v>
       </c>
       <c r="F21" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>001</v>
+        <v>014</v>
       </c>
       <c r="G21" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1356,22 +1539,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="D22" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Pajagan</v>
+        <v>Cikerenceng</v>
       </c>
       <c r="E22" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>004</v>
+        <v>013</v>
       </c>
       <c r="F22" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>006</v>
+        <v>003</v>
       </c>
       <c r="G22" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1386,10 +1569,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="D23" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
@@ -1397,11 +1580,11 @@
       </c>
       <c r="E23" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>004</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
         <v>008</v>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>004</v>
       </c>
       <c r="G23" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1416,22 +1599,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="D24" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Lebakwangi</v>
+        <v>Pajagan</v>
       </c>
       <c r="E24" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>006</v>
+        <v>008</v>
       </c>
       <c r="F24" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>015</v>
+        <v>007</v>
       </c>
       <c r="G24" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1446,22 +1629,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="D25" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Pajagan</v>
+        <v>Rinduwangi</v>
       </c>
       <c r="E25" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>006</v>
+        <v>008</v>
       </c>
       <c r="F25" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>008</v>
+        <v>013</v>
       </c>
       <c r="G25" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1476,18 +1659,18 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="D26" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Cikerenceng</v>
+        <v>Rinduwangi</v>
       </c>
       <c r="E26" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>014</v>
+        <v>006</v>
       </c>
       <c r="F26" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
@@ -1506,22 +1689,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D27" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Pajagan</v>
+        <v>Rinduwangi</v>
       </c>
       <c r="E27" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>011</v>
+        <v>007</v>
       </c>
       <c r="F27" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>009</v>
+        <v>002</v>
       </c>
       <c r="G27" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1536,22 +1719,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Lebakwangi</v>
+        <v>Pajagan</v>
       </c>
       <c r="E28" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>015</v>
+        <v>014</v>
       </c>
       <c r="F28" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>011</v>
+        <v>001</v>
       </c>
       <c r="G28" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1566,22 +1749,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="D29" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Pajagan</v>
+        <v>Lebakwangi</v>
       </c>
       <c r="E29" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>013</v>
+        <v>009</v>
       </c>
       <c r="F29" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>004</v>
+        <v>008</v>
       </c>
       <c r="G29" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1596,22 +1779,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Rinduwangi</v>
+        <v>Lebakwangi</v>
       </c>
       <c r="E30" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>003</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
         <v>012</v>
-      </c>
-      <c r="F30" s="2" t="str">
-        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>010</v>
       </c>
       <c r="G30" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1626,22 +1809,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="D31" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Lebakwangi</v>
+        <v>Rinduwangi</v>
       </c>
       <c r="E31" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>014</v>
+        <v>011</v>
       </c>
       <c r="F31" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>009</v>
+        <v>007</v>
       </c>
       <c r="G31" s="4" t="str">
         <f>conf!$A$2</f>
@@ -1652,231 +1835,814 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="4"/>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Pajagan</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>002</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>010</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Rinduwangi</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>004</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>006</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Pajagan</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>008</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>006</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Pajagan</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>004</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>005</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Cikerenceng</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>001</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>010</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Pajagan</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>005</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>011</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Lebakwangi</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>003</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>006</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Cikerenceng</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>011</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>010</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Pajagan</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>002</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>008</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Rinduwangi</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>003</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>010</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Pajagan</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>015</v>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>012</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Cikerenceng</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>012</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>004</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Cikerenceng</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>013</v>
+      </c>
+      <c r="F44" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>011</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Pajagan</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>001</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>011</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Lebakwangi</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>015</v>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>007</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Pajagan</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>007</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>006</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Rinduwangi</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>005</v>
+      </c>
+      <c r="F48" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>009</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Pajagan</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>009</v>
+      </c>
+      <c r="F49" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>005</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Rinduwangi</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>011</v>
+      </c>
+      <c r="F50" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>005</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Lebakwangi</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>006</v>
+      </c>
+      <c r="F51" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>009</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Pajagan</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>015</v>
+      </c>
+      <c r="F52" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>002</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Lebakwangi</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>003</v>
+      </c>
+      <c r="F53" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>014</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Pajagan</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>005</v>
+      </c>
+      <c r="F54" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>010</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Rinduwangi</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>013</v>
+      </c>
+      <c r="F55" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>005</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Cikerenceng</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>013</v>
+      </c>
+      <c r="F56" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>011</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Pajagan</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>007</v>
+      </c>
+      <c r="F57" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>008</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Rinduwangi</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>006</v>
+      </c>
+      <c r="F58" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>009</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Lebakwangi</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>010</v>
+      </c>
+      <c r="F59" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>014</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Cikerenceng</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>010</v>
+      </c>
+      <c r="F60" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>005</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Cikerenceng</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>013</v>
+      </c>
+      <c r="F61" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>015</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v xml:space="preserve">Mekarwangi  </v>
+      </c>
+      <c r="H61" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
@@ -1895,10 +2661,13 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1916,10 +2685,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -1930,7 +2699,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -1941,7 +2710,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -1952,7 +2721,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
